--- a/Data/Processed/Angiosperms/missing_powo_ipni/Campanulaceae.xlsx
+++ b/Data/Processed/Angiosperms/missing_powo_ipni/Campanulaceae.xlsx
@@ -5107,7 +5107,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
@@ -5117,7 +5117,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t xml:space="preserve">Repert. Spec. Nov. Regni Veg. 26: 6, pl. 72, fig. 24. 1929 </t>
+          <t>Repert. Spec. Nov. Regni Veg. 26: 6, pl. 72, fig. 24. 1929</t>
         </is>
       </c>
       <c r="J86" t="b">
@@ -5185,7 +5185,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
@@ -5195,7 +5195,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ann. Missouri Bot. Gard. 52: 401. 1965 </t>
+          <t>Ann. Missouri Bot. Gard. 52: 401. 1965</t>
         </is>
       </c>
       <c r="J87" t="b">
@@ -5263,7 +5263,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
@@ -5273,7 +5273,7 @@
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ann. Missouri Bot. Gard. 52: 408. 1965 </t>
+          <t>Ann. Missouri Bot. Gard. 52: 408. 1965</t>
         </is>
       </c>
       <c r="J88" t="b">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
@@ -5351,7 +5351,7 @@
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ann. Missouri Bot. Gard. 52: 407. 1965 </t>
+          <t>Ann. Missouri Bot. Gard. 52: 407. 1965</t>
         </is>
       </c>
       <c r="J89" t="b">
@@ -5419,7 +5419,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ann. Missouri Bot. Gard. 52: 409. 1965 </t>
+          <t>Ann. Missouri Bot. Gard. 52: 409. 1965</t>
         </is>
       </c>
       <c r="J90" t="b">
@@ -5497,7 +5497,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Accepted</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
